--- a/src/assets/Ordersheet_2023-Räubersachen.xlsx
+++ b/src/assets/Ordersheet_2023-Räubersachen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobias.bielohlawek/Projects/harfmann/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71358E9C-1BA3-874C-9EF5-BC6C83809A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEEC301-C301-FF42-B0EE-2B5A6344C11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="25600" windowHeight="15520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,16 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -28,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="91">
   <si>
     <t>Firma</t>
   </si>
@@ -303,6 +313,9 @@
   </si>
   <si>
     <t>144 - Räubersachen GmbH</t>
+  </si>
+  <si>
+    <t>Versandkosten</t>
   </si>
 </sst>
 </file>
@@ -990,7 +1003,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1520,27 +1533,41 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1555,9 +1582,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1580,15 +1604,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1971,11 +1987,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM75"/>
+  <dimension ref="A1:AM77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4:N4"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2008,26 +2024,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="178" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174" t="s">
+      <c r="B1" s="178"/>
+      <c r="C1" s="178" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="185" t="s">
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="188" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
-      <c r="L1" s="185"/>
-      <c r="M1" s="185"/>
-      <c r="N1" s="185"/>
+      <c r="H1" s="188"/>
+      <c r="I1" s="188"/>
+      <c r="J1" s="188"/>
+      <c r="K1" s="188"/>
+      <c r="L1" s="188"/>
+      <c r="M1" s="188"/>
+      <c r="N1" s="188"/>
       <c r="O1" s="48"/>
       <c r="P1" s="48"/>
       <c r="Q1" s="48"/>
@@ -2052,44 +2068,44 @@
       </c>
     </row>
     <row r="2" spans="1:39" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="180"/>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
-      <c r="M2" s="181"/>
-      <c r="N2" s="181"/>
-      <c r="O2" s="181"/>
-      <c r="P2" s="181"/>
-      <c r="Q2" s="181"/>
-      <c r="R2" s="181"/>
-      <c r="S2" s="181"/>
-      <c r="T2" s="181"/>
-      <c r="U2" s="181"/>
-      <c r="V2" s="181"/>
-      <c r="W2" s="181"/>
-      <c r="X2" s="181"/>
-      <c r="Y2" s="181"/>
-      <c r="Z2" s="181"/>
-      <c r="AA2" s="181"/>
-      <c r="AB2" s="181"/>
-      <c r="AC2" s="181"/>
-      <c r="AD2" s="181"/>
-      <c r="AE2" s="181"/>
-      <c r="AF2" s="181"/>
-      <c r="AG2" s="181"/>
-      <c r="AH2" s="181"/>
-      <c r="AI2" s="181"/>
-      <c r="AJ2" s="181"/>
-      <c r="AK2" s="181"/>
-      <c r="AL2" s="181"/>
-      <c r="AM2" s="181"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="184"/>
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="184"/>
+      <c r="S2" s="184"/>
+      <c r="T2" s="184"/>
+      <c r="U2" s="184"/>
+      <c r="V2" s="184"/>
+      <c r="W2" s="184"/>
+      <c r="X2" s="184"/>
+      <c r="Y2" s="184"/>
+      <c r="Z2" s="184"/>
+      <c r="AA2" s="184"/>
+      <c r="AB2" s="184"/>
+      <c r="AC2" s="184"/>
+      <c r="AD2" s="184"/>
+      <c r="AE2" s="184"/>
+      <c r="AF2" s="184"/>
+      <c r="AG2" s="184"/>
+      <c r="AH2" s="184"/>
+      <c r="AI2" s="184"/>
+      <c r="AJ2" s="184"/>
+      <c r="AK2" s="184"/>
+      <c r="AL2" s="184"/>
+      <c r="AM2" s="184"/>
     </row>
     <row r="3" spans="1:39" ht="38.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -2097,34 +2113,34 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="184" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="184"/>
-      <c r="G3" s="188" t="s">
+      <c r="E3" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="187"/>
+      <c r="G3" s="175" t="s">
         <v>89</v>
       </c>
-      <c r="H3" s="188"/>
-      <c r="I3" s="188"/>
-      <c r="J3" s="188"/>
-      <c r="K3" s="188"/>
-      <c r="L3" s="188"/>
-      <c r="M3" s="188"/>
-      <c r="N3" s="188"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="175"/>
+      <c r="J3" s="175"/>
+      <c r="K3" s="175"/>
+      <c r="L3" s="175"/>
+      <c r="M3" s="175"/>
+      <c r="N3" s="175"/>
       <c r="Q3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="R3" s="3"/>
-      <c r="S3" s="186" t="s">
+      <c r="S3" s="189" t="s">
         <v>88</v>
       </c>
-      <c r="T3" s="186"/>
-      <c r="U3" s="186"/>
-      <c r="V3" s="186"/>
-      <c r="W3" s="186"/>
-      <c r="X3" s="186"/>
-      <c r="Y3" s="186"/>
-      <c r="Z3" s="186"/>
+      <c r="T3" s="189"/>
+      <c r="U3" s="189"/>
+      <c r="V3" s="189"/>
+      <c r="W3" s="189"/>
+      <c r="X3" s="189"/>
+      <c r="Y3" s="189"/>
+      <c r="Z3" s="189"/>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
@@ -2143,34 +2159,34 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="177" t="s">
+      <c r="E4" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="177"/>
-      <c r="G4" s="187" t="s">
+      <c r="F4" s="181"/>
+      <c r="G4" s="174" t="s">
         <v>84</v>
       </c>
-      <c r="H4" s="187"/>
-      <c r="I4" s="187"/>
-      <c r="J4" s="187"/>
-      <c r="K4" s="187"/>
-      <c r="L4" s="187"/>
-      <c r="M4" s="187"/>
-      <c r="N4" s="187"/>
+      <c r="H4" s="174"/>
+      <c r="I4" s="174"/>
+      <c r="J4" s="174"/>
+      <c r="K4" s="174"/>
+      <c r="L4" s="174"/>
+      <c r="M4" s="174"/>
+      <c r="N4" s="174"/>
       <c r="Q4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R4" s="3"/>
-      <c r="S4" s="183" t="s">
+      <c r="S4" s="186" t="s">
         <v>87</v>
       </c>
-      <c r="T4" s="183"/>
-      <c r="U4" s="183"/>
-      <c r="V4" s="183"/>
-      <c r="W4" s="183"/>
-      <c r="X4" s="183"/>
-      <c r="Y4" s="183"/>
-      <c r="Z4" s="183"/>
+      <c r="T4" s="186"/>
+      <c r="U4" s="186"/>
+      <c r="V4" s="186"/>
+      <c r="W4" s="186"/>
+      <c r="X4" s="186"/>
+      <c r="Y4" s="186"/>
+      <c r="Z4" s="186"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
@@ -2189,34 +2205,34 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="177" t="s">
+      <c r="E5" s="181" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="177"/>
-      <c r="G5" s="187" t="s">
+      <c r="F5" s="181"/>
+      <c r="G5" s="174" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="187"/>
-      <c r="I5" s="187"/>
-      <c r="J5" s="187"/>
-      <c r="K5" s="187"/>
-      <c r="L5" s="187"/>
-      <c r="M5" s="187"/>
-      <c r="N5" s="187"/>
+      <c r="H5" s="174"/>
+      <c r="I5" s="174"/>
+      <c r="J5" s="174"/>
+      <c r="K5" s="174"/>
+      <c r="L5" s="174"/>
+      <c r="M5" s="174"/>
+      <c r="N5" s="174"/>
       <c r="Q5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R5" s="3"/>
-      <c r="S5" s="183" t="s">
+      <c r="S5" s="186" t="s">
         <v>86</v>
       </c>
-      <c r="T5" s="183"/>
-      <c r="U5" s="183"/>
-      <c r="V5" s="183"/>
-      <c r="W5" s="183"/>
-      <c r="X5" s="183"/>
-      <c r="Y5" s="183"/>
-      <c r="Z5" s="183"/>
+      <c r="T5" s="186"/>
+      <c r="U5" s="186"/>
+      <c r="V5" s="186"/>
+      <c r="W5" s="186"/>
+      <c r="X5" s="186"/>
+      <c r="Y5" s="186"/>
+      <c r="Z5" s="186"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
@@ -2235,20 +2251,20 @@
       <c r="B6" s="47"/>
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="177" t="s">
+      <c r="E6" s="181" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="177"/>
-      <c r="G6" s="187" t="s">
+      <c r="F6" s="181"/>
+      <c r="G6" s="174" t="s">
         <v>85</v>
       </c>
-      <c r="H6" s="187"/>
-      <c r="I6" s="187"/>
-      <c r="J6" s="187"/>
-      <c r="K6" s="187"/>
-      <c r="L6" s="187"/>
-      <c r="M6" s="187"/>
-      <c r="N6" s="187"/>
+      <c r="H6" s="174"/>
+      <c r="I6" s="174"/>
+      <c r="J6" s="174"/>
+      <c r="K6" s="174"/>
+      <c r="L6" s="174"/>
+      <c r="M6" s="174"/>
+      <c r="N6" s="174"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
@@ -2276,13 +2292,13 @@
       <c r="AM6" s="33"/>
     </row>
     <row r="7" spans="1:39" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="175" t="s">
+      <c r="B7" s="179" t="s">
         <v>81</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="178"/>
-      <c r="F7" s="178"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="182"/>
       <c r="G7" s="38"/>
       <c r="H7" s="131"/>
       <c r="I7" s="38"/>
@@ -2318,7 +2334,7 @@
       <c r="AM7" s="33"/>
     </row>
     <row r="8" spans="1:39" ht="40.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="175"/>
+      <c r="B8" s="179"/>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
       <c r="E8" s="7"/>
@@ -2358,7 +2374,7 @@
       <c r="AM8" s="35"/>
     </row>
     <row r="9" spans="1:39" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="175"/>
+      <c r="B9" s="179"/>
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
       <c r="E9" s="161"/>
@@ -2400,50 +2416,50 @@
       <c r="AM9" s="36"/>
     </row>
     <row r="10" spans="1:39" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="176"/>
+      <c r="B10" s="180"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="179" t="s">
+      <c r="E10" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="179"/>
-      <c r="G10" s="179"/>
+      <c r="F10" s="177"/>
+      <c r="G10" s="177"/>
       <c r="H10" s="133"/>
-      <c r="I10" s="179" t="s">
+      <c r="I10" s="177" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="179"/>
-      <c r="K10" s="179"/>
+      <c r="J10" s="177"/>
+      <c r="K10" s="177"/>
       <c r="L10" s="133"/>
-      <c r="M10" s="179" t="s">
+      <c r="M10" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="179"/>
-      <c r="O10" s="179"/>
+      <c r="N10" s="177"/>
+      <c r="O10" s="177"/>
       <c r="P10" s="82"/>
-      <c r="Q10" s="179" t="s">
+      <c r="Q10" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="R10" s="179"/>
-      <c r="S10" s="179"/>
+      <c r="R10" s="177"/>
+      <c r="S10" s="177"/>
       <c r="T10" s="133"/>
-      <c r="U10" s="179" t="s">
+      <c r="U10" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="V10" s="179"/>
-      <c r="W10" s="179"/>
+      <c r="V10" s="177"/>
+      <c r="W10" s="177"/>
       <c r="X10" s="133"/>
-      <c r="Y10" s="179" t="s">
+      <c r="Y10" s="177" t="s">
         <v>43</v>
       </c>
-      <c r="Z10" s="179"/>
-      <c r="AA10" s="179"/>
+      <c r="Z10" s="177"/>
+      <c r="AA10" s="177"/>
       <c r="AB10" s="82"/>
-      <c r="AC10" s="179" t="s">
+      <c r="AC10" s="177" t="s">
         <v>44</v>
       </c>
-      <c r="AD10" s="179"/>
-      <c r="AE10" s="179"/>
+      <c r="AD10" s="177"/>
+      <c r="AE10" s="177"/>
       <c r="AF10" s="93"/>
       <c r="AG10" s="12"/>
       <c r="AH10" s="103"/>
@@ -2540,7 +2556,7 @@
       <c r="AJ11" s="36"/>
     </row>
     <row r="12" spans="1:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="189" t="s">
+      <c r="B12" s="176" t="s">
         <v>62</v>
       </c>
       <c r="C12" s="14" t="s">
@@ -2634,7 +2650,7 @@
       <c r="AJ12" s="36"/>
     </row>
     <row r="13" spans="1:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="167"/>
+      <c r="B13" s="172"/>
       <c r="C13" s="14" t="s">
         <v>25</v>
       </c>
@@ -2738,7 +2754,7 @@
       <c r="AJ13" s="36"/>
     </row>
     <row r="14" spans="1:39" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="167"/>
+      <c r="B14" s="172"/>
       <c r="C14" s="50" t="s">
         <v>25</v>
       </c>
@@ -2842,7 +2858,7 @@
       <c r="AJ14" s="36"/>
     </row>
     <row r="15" spans="1:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="169" t="s">
+      <c r="B15" s="167" t="s">
         <v>63</v>
       </c>
       <c r="C15" s="19" t="s">
@@ -3583,41 +3599,41 @@
       <c r="F25" s="173"/>
       <c r="G25" s="173"/>
       <c r="H25" s="135"/>
-      <c r="I25" s="170" t="s">
+      <c r="I25" s="169" t="s">
         <v>38</v>
       </c>
-      <c r="J25" s="171"/>
-      <c r="K25" s="172"/>
+      <c r="J25" s="170"/>
+      <c r="K25" s="171"/>
       <c r="L25" s="134"/>
-      <c r="M25" s="170" t="s">
+      <c r="M25" s="169" t="s">
         <v>39</v>
       </c>
-      <c r="N25" s="171"/>
-      <c r="O25" s="172"/>
+      <c r="N25" s="170"/>
+      <c r="O25" s="171"/>
       <c r="P25" s="91"/>
-      <c r="Q25" s="170" t="s">
+      <c r="Q25" s="169" t="s">
         <v>41</v>
       </c>
-      <c r="R25" s="171"/>
-      <c r="S25" s="172"/>
+      <c r="R25" s="170"/>
+      <c r="S25" s="171"/>
       <c r="T25" s="134"/>
-      <c r="U25" s="170" t="s">
+      <c r="U25" s="169" t="s">
         <v>36</v>
       </c>
-      <c r="V25" s="171"/>
-      <c r="W25" s="172"/>
+      <c r="V25" s="170"/>
+      <c r="W25" s="171"/>
       <c r="X25" s="134"/>
-      <c r="Y25" s="170" t="s">
+      <c r="Y25" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="Z25" s="171"/>
-      <c r="AA25" s="172"/>
+      <c r="Z25" s="170"/>
+      <c r="AA25" s="171"/>
       <c r="AB25" s="91"/>
-      <c r="AC25" s="170" t="s">
+      <c r="AC25" s="169" t="s">
         <v>37</v>
       </c>
-      <c r="AD25" s="171"/>
-      <c r="AE25" s="172"/>
+      <c r="AD25" s="170"/>
+      <c r="AE25" s="171"/>
       <c r="AF25" s="99"/>
       <c r="AG25" s="12"/>
       <c r="AH25" s="103"/>
@@ -3714,7 +3730,7 @@
       <c r="AJ26" s="36"/>
     </row>
     <row r="27" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="167" t="s">
+      <c r="B27" s="172" t="s">
         <v>66</v>
       </c>
       <c r="C27" s="14" t="s">
@@ -3787,7 +3803,7 @@
       <c r="AJ27" s="36"/>
     </row>
     <row r="28" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="167"/>
+      <c r="B28" s="172"/>
       <c r="C28" s="14" t="s">
         <v>25</v>
       </c>
@@ -3941,7 +3957,7 @@
       <c r="AJ29" s="36"/>
     </row>
     <row r="30" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="169" t="s">
+      <c r="B30" s="167" t="s">
         <v>67</v>
       </c>
       <c r="C30" s="66" t="s">
@@ -4081,7 +4097,7 @@
       <c r="AJ31" s="36"/>
     </row>
     <row r="32" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="169" t="s">
+      <c r="B32" s="167" t="s">
         <v>68</v>
       </c>
       <c r="C32" s="66" t="s">
@@ -4325,33 +4341,33 @@
       <c r="F37" s="173"/>
       <c r="G37" s="173"/>
       <c r="H37" s="135"/>
-      <c r="I37" s="170" t="s">
+      <c r="I37" s="169" t="s">
         <v>60</v>
       </c>
-      <c r="J37" s="171"/>
-      <c r="K37" s="172"/>
+      <c r="J37" s="170"/>
+      <c r="K37" s="171"/>
       <c r="L37" s="134"/>
-      <c r="M37" s="170" t="s">
+      <c r="M37" s="169" t="s">
         <v>61</v>
       </c>
-      <c r="N37" s="171"/>
-      <c r="O37" s="172"/>
+      <c r="N37" s="170"/>
+      <c r="O37" s="171"/>
       <c r="P37" s="91"/>
-      <c r="Q37" s="170"/>
-      <c r="R37" s="171"/>
-      <c r="S37" s="172"/>
+      <c r="Q37" s="169"/>
+      <c r="R37" s="170"/>
+      <c r="S37" s="171"/>
       <c r="T37" s="134"/>
-      <c r="U37" s="170"/>
-      <c r="V37" s="171"/>
-      <c r="W37" s="172"/>
+      <c r="U37" s="169"/>
+      <c r="V37" s="170"/>
+      <c r="W37" s="171"/>
       <c r="X37" s="134"/>
-      <c r="Y37" s="170"/>
-      <c r="Z37" s="171"/>
-      <c r="AA37" s="172"/>
+      <c r="Y37" s="169"/>
+      <c r="Z37" s="170"/>
+      <c r="AA37" s="171"/>
       <c r="AB37" s="91"/>
-      <c r="AC37" s="170"/>
-      <c r="AD37" s="171"/>
-      <c r="AE37" s="172"/>
+      <c r="AC37" s="169"/>
+      <c r="AD37" s="170"/>
+      <c r="AE37" s="171"/>
       <c r="AF37" s="99"/>
       <c r="AG37" s="12"/>
       <c r="AH37" s="103"/>
@@ -4524,7 +4540,7 @@
       <c r="AJ39" s="36"/>
     </row>
     <row r="40" spans="2:36" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="169" t="s">
+      <c r="B40" s="167" t="s">
         <v>45</v>
       </c>
       <c r="C40" s="66" t="s">
@@ -4672,7 +4688,7 @@
       <c r="AJ41" s="36"/>
     </row>
     <row r="42" spans="2:36" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="169" t="s">
+      <c r="B42" s="167" t="s">
         <v>70</v>
       </c>
       <c r="C42" s="14" t="s">
@@ -4750,7 +4766,7 @@
       <c r="AJ42" s="36"/>
     </row>
     <row r="43" spans="2:36" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="167"/>
+      <c r="B43" s="172"/>
       <c r="C43" s="14" t="s">
         <v>25</v>
       </c>
@@ -4910,7 +4926,7 @@
       <c r="AJ44" s="36"/>
     </row>
     <row r="45" spans="2:36" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="167" t="s">
+      <c r="B45" s="172" t="s">
         <v>77</v>
       </c>
       <c r="C45" s="19" t="s">
@@ -5162,43 +5178,43 @@
       <c r="B50" s="64"/>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
-      <c r="E50" s="170" t="s">
+      <c r="E50" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="171"/>
-      <c r="G50" s="172"/>
+      <c r="F50" s="170"/>
+      <c r="G50" s="171"/>
       <c r="H50" s="135"/>
-      <c r="I50" s="170" t="s">
+      <c r="I50" s="169" t="s">
         <v>12</v>
       </c>
-      <c r="J50" s="171"/>
-      <c r="K50" s="172"/>
+      <c r="J50" s="170"/>
+      <c r="K50" s="171"/>
       <c r="L50" s="134"/>
-      <c r="M50" s="170" t="s">
+      <c r="M50" s="169" t="s">
         <v>13</v>
       </c>
-      <c r="N50" s="171"/>
-      <c r="O50" s="172"/>
+      <c r="N50" s="170"/>
+      <c r="O50" s="171"/>
       <c r="P50" s="91"/>
-      <c r="Q50" s="170" t="s">
+      <c r="Q50" s="169" t="s">
         <v>14</v>
       </c>
-      <c r="R50" s="171"/>
-      <c r="S50" s="172"/>
+      <c r="R50" s="170"/>
+      <c r="S50" s="171"/>
       <c r="T50" s="134"/>
-      <c r="U50" s="170" t="s">
+      <c r="U50" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="V50" s="171"/>
-      <c r="W50" s="172"/>
+      <c r="V50" s="170"/>
+      <c r="W50" s="171"/>
       <c r="X50" s="134"/>
-      <c r="Y50" s="170"/>
-      <c r="Z50" s="171"/>
-      <c r="AA50" s="172"/>
+      <c r="Y50" s="169"/>
+      <c r="Z50" s="170"/>
+      <c r="AA50" s="171"/>
       <c r="AB50" s="91"/>
-      <c r="AC50" s="170"/>
-      <c r="AD50" s="171"/>
-      <c r="AE50" s="172"/>
+      <c r="AC50" s="169"/>
+      <c r="AD50" s="170"/>
+      <c r="AE50" s="171"/>
       <c r="AF50" s="99"/>
       <c r="AG50" s="12"/>
       <c r="AH50" s="103"/>
@@ -5291,7 +5307,7 @@
       </c>
     </row>
     <row r="52" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="169" t="s">
+      <c r="B52" s="167" t="s">
         <v>42</v>
       </c>
       <c r="C52" s="19" t="s">
@@ -5381,7 +5397,7 @@
       <c r="AJ52" s="36"/>
     </row>
     <row r="53" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="167"/>
+      <c r="B53" s="172"/>
       <c r="C53" s="14" t="s">
         <v>25</v>
       </c>
@@ -5479,7 +5495,7 @@
       <c r="AJ53" s="36"/>
     </row>
     <row r="54" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="167"/>
+      <c r="B54" s="172"/>
       <c r="C54" s="14" t="s">
         <v>25</v>
       </c>
@@ -5577,7 +5593,7 @@
       <c r="AJ54" s="36"/>
     </row>
     <row r="55" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="167"/>
+      <c r="B55" s="172"/>
       <c r="C55" s="14" t="s">
         <v>25</v>
       </c>
@@ -5776,7 +5792,7 @@
       <c r="AM56" s="37"/>
     </row>
     <row r="57" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="169" t="s">
+      <c r="B57" s="167" t="s">
         <v>33</v>
       </c>
       <c r="C57" s="66" t="s">
@@ -5976,7 +5992,7 @@
       <c r="AJ58" s="36"/>
     </row>
     <row r="59" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="167" t="s">
+      <c r="B59" s="172" t="s">
         <v>59</v>
       </c>
       <c r="C59" s="57" t="s">
@@ -6064,7 +6080,7 @@
       </c>
     </row>
     <row r="60" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="167"/>
+      <c r="B60" s="172"/>
       <c r="C60" s="14" t="s">
         <v>80</v>
       </c>
@@ -6256,7 +6272,7 @@
       </c>
     </row>
     <row r="62" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="169" t="s">
+      <c r="B62" s="167" t="s">
         <v>58</v>
       </c>
       <c r="C62" s="66" t="s">
@@ -6344,7 +6360,7 @@
       </c>
     </row>
     <row r="63" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="167"/>
+      <c r="B63" s="172"/>
       <c r="C63" s="14" t="s">
         <v>80</v>
       </c>
@@ -6536,7 +6552,7 @@
       </c>
     </row>
     <row r="65" spans="2:36" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="167" t="s">
+      <c r="B65" s="172" t="s">
         <v>48</v>
       </c>
       <c r="C65" s="57" t="s">
@@ -6624,7 +6640,7 @@
       </c>
     </row>
     <row r="66" spans="2:36" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="167"/>
+      <c r="B66" s="172"/>
       <c r="C66" s="30" t="s">
         <v>80</v>
       </c>
@@ -6816,7 +6832,7 @@
       </c>
     </row>
     <row r="68" spans="2:36" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="169" t="s">
+      <c r="B68" s="167" t="s">
         <v>57</v>
       </c>
       <c r="C68" s="19" t="s">
@@ -6904,7 +6920,7 @@
       </c>
     </row>
     <row r="69" spans="2:36" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="167"/>
+      <c r="B69" s="172"/>
       <c r="C69" s="50" t="s">
         <v>25</v>
       </c>
@@ -7000,7 +7016,7 @@
       </c>
     </row>
     <row r="70" spans="2:36" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="169" t="s">
+      <c r="B70" s="167" t="s">
         <v>47</v>
       </c>
       <c r="C70" s="66" t="s">
@@ -7242,31 +7258,118 @@
       </c>
     </row>
     <row r="74" spans="2:36" ht="42.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="2:36" ht="42.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="2:36" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="190" t="s">
+        <v>90</v>
+      </c>
+      <c r="C75" s="14"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="76"/>
+      <c r="F75" s="42">
+        <v>10.49</v>
+      </c>
+      <c r="G75" s="42">
+        <v>10.49</v>
+      </c>
+      <c r="H75" s="115">
+        <f t="shared" ref="H75" si="72">E75*F75</f>
+        <v>0</v>
+      </c>
+      <c r="I75" s="76">
+        <v>1</v>
+      </c>
+      <c r="J75" s="42">
+        <v>6.99</v>
+      </c>
+      <c r="K75" s="42">
+        <v>6.99</v>
+      </c>
+      <c r="L75" s="115">
+        <f t="shared" ref="L75" si="73">I75*J75</f>
+        <v>6.99</v>
+      </c>
+      <c r="M75" s="76"/>
+      <c r="N75" s="42">
+        <v>26.99</v>
+      </c>
+      <c r="O75" s="42">
+        <v>26.99</v>
+      </c>
+      <c r="P75" s="42">
+        <f t="shared" ref="P75" si="74">M75*N75</f>
+        <v>0</v>
+      </c>
+      <c r="Q75" s="76"/>
+      <c r="R75" s="42"/>
+      <c r="S75" s="42"/>
+      <c r="T75" s="115">
+        <f t="shared" ref="T75" si="75">Q75*R75</f>
+        <v>0</v>
+      </c>
+      <c r="U75" s="76"/>
+      <c r="V75" s="42"/>
+      <c r="W75" s="42"/>
+      <c r="X75" s="115">
+        <f t="shared" ref="X75" si="76">U75*V75</f>
+        <v>0</v>
+      </c>
+      <c r="Y75" s="16"/>
+      <c r="Z75" s="39"/>
+      <c r="AA75" s="39"/>
+      <c r="AB75" s="42">
+        <f t="shared" ref="AB75" si="77">Y75*Z75</f>
+        <v>0</v>
+      </c>
+      <c r="AC75" s="16"/>
+      <c r="AD75" s="39"/>
+      <c r="AE75" s="39"/>
+      <c r="AF75" s="42">
+        <f t="shared" ref="AF75" si="78">AC75*AD75</f>
+        <v>0</v>
+      </c>
+      <c r="AG75" s="17">
+        <f t="shared" ref="AG75" si="79">SUM(E75,I75,M75,Q75,U75,Y75,AC75)</f>
+        <v>1</v>
+      </c>
+      <c r="AH75" s="18">
+        <f t="shared" ref="AH75" si="80">SUM(H75,L75,P75,T75,X75,AB75,AF75)</f>
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="76" spans="2:36" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH76" s="18">
+        <f>AH73+AH75</f>
+        <v>2986.79</v>
+      </c>
+    </row>
+    <row r="77" spans="2:36" ht="42.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0nqJO02hVEoMxXi2eRaYVfeQhSQfnH8ErZGZrMvMdc5vl2IIvsw5A+0tdQNKhl8sA2RAkMmyN6bSp6GO0nXmgQ==" saltValue="BI9KhyblbcAKKNIwwivtmg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <mergeCells count="61">
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="Q25:S25"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="G6:N6"/>
-    <mergeCell ref="G3:N3"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="Y50:AA50"/>
+    <mergeCell ref="AC50:AE50"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="Q50:S50"/>
+    <mergeCell ref="U50:W50"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="AC37:AE37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="U37:W37"/>
+    <mergeCell ref="B42:B44"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="E6:F6"/>
@@ -7283,30 +7386,27 @@
     <mergeCell ref="G1:N1"/>
     <mergeCell ref="Q10:S10"/>
     <mergeCell ref="S3:Z3"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="AC37:AE37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="U37:W37"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="Y50:AA50"/>
-    <mergeCell ref="AC50:AE50"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="Q50:S50"/>
-    <mergeCell ref="U50:W50"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="G6:N6"/>
+    <mergeCell ref="G3:N3"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="E25:G25"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/src/assets/Ordersheet_2023-Räubersachen.xlsx
+++ b/src/assets/Ordersheet_2023-Räubersachen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobias.bielohlawek/Projects/harfmann/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEEC301-C301-FF42-B0EE-2B5A6344C11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063AA8E3-CAD6-424F-8C37-4F8A41107B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="25600" windowHeight="15520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1533,12 +1533,18 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1548,11 +1554,47 @@
     <xf numFmtId="49" fontId="12" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1563,48 +1605,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1990,8 +1990,8 @@
   <dimension ref="A1:AM77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2024,26 +2024,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="175" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178" t="s">
+      <c r="B1" s="175"/>
+      <c r="C1" s="175" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="188" t="s">
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="186" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="188"/>
-      <c r="I1" s="188"/>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="188"/>
-      <c r="N1" s="188"/>
+      <c r="H1" s="186"/>
+      <c r="I1" s="186"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="186"/>
+      <c r="M1" s="186"/>
+      <c r="N1" s="186"/>
       <c r="O1" s="48"/>
       <c r="P1" s="48"/>
       <c r="Q1" s="48"/>
@@ -2068,44 +2068,44 @@
       </c>
     </row>
     <row r="2" spans="1:39" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="183"/>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
-      <c r="J2" s="184"/>
-      <c r="K2" s="184"/>
-      <c r="L2" s="184"/>
-      <c r="M2" s="184"/>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="184"/>
-      <c r="S2" s="184"/>
-      <c r="T2" s="184"/>
-      <c r="U2" s="184"/>
-      <c r="V2" s="184"/>
-      <c r="W2" s="184"/>
-      <c r="X2" s="184"/>
-      <c r="Y2" s="184"/>
-      <c r="Z2" s="184"/>
-      <c r="AA2" s="184"/>
-      <c r="AB2" s="184"/>
-      <c r="AC2" s="184"/>
-      <c r="AD2" s="184"/>
-      <c r="AE2" s="184"/>
-      <c r="AF2" s="184"/>
-      <c r="AG2" s="184"/>
-      <c r="AH2" s="184"/>
-      <c r="AI2" s="184"/>
-      <c r="AJ2" s="184"/>
-      <c r="AK2" s="184"/>
-      <c r="AL2" s="184"/>
-      <c r="AM2" s="184"/>
+      <c r="B2" s="181"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
+      <c r="J2" s="182"/>
+      <c r="K2" s="182"/>
+      <c r="L2" s="182"/>
+      <c r="M2" s="182"/>
+      <c r="N2" s="182"/>
+      <c r="O2" s="182"/>
+      <c r="P2" s="182"/>
+      <c r="Q2" s="182"/>
+      <c r="R2" s="182"/>
+      <c r="S2" s="182"/>
+      <c r="T2" s="182"/>
+      <c r="U2" s="182"/>
+      <c r="V2" s="182"/>
+      <c r="W2" s="182"/>
+      <c r="X2" s="182"/>
+      <c r="Y2" s="182"/>
+      <c r="Z2" s="182"/>
+      <c r="AA2" s="182"/>
+      <c r="AB2" s="182"/>
+      <c r="AC2" s="182"/>
+      <c r="AD2" s="182"/>
+      <c r="AE2" s="182"/>
+      <c r="AF2" s="182"/>
+      <c r="AG2" s="182"/>
+      <c r="AH2" s="182"/>
+      <c r="AI2" s="182"/>
+      <c r="AJ2" s="182"/>
+      <c r="AK2" s="182"/>
+      <c r="AL2" s="182"/>
+      <c r="AM2" s="182"/>
     </row>
     <row r="3" spans="1:39" ht="38.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -2113,34 +2113,34 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="187" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="187"/>
-      <c r="G3" s="175" t="s">
+      <c r="E3" s="185" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="185"/>
+      <c r="G3" s="189" t="s">
         <v>89</v>
       </c>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="175"/>
-      <c r="M3" s="175"/>
-      <c r="N3" s="175"/>
+      <c r="H3" s="189"/>
+      <c r="I3" s="189"/>
+      <c r="J3" s="189"/>
+      <c r="K3" s="189"/>
+      <c r="L3" s="189"/>
+      <c r="M3" s="189"/>
+      <c r="N3" s="189"/>
       <c r="Q3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="R3" s="3"/>
-      <c r="S3" s="189" t="s">
+      <c r="S3" s="187" t="s">
         <v>88</v>
       </c>
-      <c r="T3" s="189"/>
-      <c r="U3" s="189"/>
-      <c r="V3" s="189"/>
-      <c r="W3" s="189"/>
-      <c r="X3" s="189"/>
-      <c r="Y3" s="189"/>
-      <c r="Z3" s="189"/>
+      <c r="T3" s="187"/>
+      <c r="U3" s="187"/>
+      <c r="V3" s="187"/>
+      <c r="W3" s="187"/>
+      <c r="X3" s="187"/>
+      <c r="Y3" s="187"/>
+      <c r="Z3" s="187"/>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
@@ -2159,34 +2159,34 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="181" t="s">
+      <c r="E4" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="181"/>
-      <c r="G4" s="174" t="s">
+      <c r="F4" s="178"/>
+      <c r="G4" s="188" t="s">
         <v>84</v>
       </c>
-      <c r="H4" s="174"/>
-      <c r="I4" s="174"/>
-      <c r="J4" s="174"/>
-      <c r="K4" s="174"/>
-      <c r="L4" s="174"/>
-      <c r="M4" s="174"/>
-      <c r="N4" s="174"/>
+      <c r="H4" s="188"/>
+      <c r="I4" s="188"/>
+      <c r="J4" s="188"/>
+      <c r="K4" s="188"/>
+      <c r="L4" s="188"/>
+      <c r="M4" s="188"/>
+      <c r="N4" s="188"/>
       <c r="Q4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R4" s="3"/>
-      <c r="S4" s="186" t="s">
+      <c r="S4" s="184" t="s">
         <v>87</v>
       </c>
-      <c r="T4" s="186"/>
-      <c r="U4" s="186"/>
-      <c r="V4" s="186"/>
-      <c r="W4" s="186"/>
-      <c r="X4" s="186"/>
-      <c r="Y4" s="186"/>
-      <c r="Z4" s="186"/>
+      <c r="T4" s="184"/>
+      <c r="U4" s="184"/>
+      <c r="V4" s="184"/>
+      <c r="W4" s="184"/>
+      <c r="X4" s="184"/>
+      <c r="Y4" s="184"/>
+      <c r="Z4" s="184"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
@@ -2205,34 +2205,34 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="181" t="s">
+      <c r="E5" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="181"/>
-      <c r="G5" s="174" t="s">
+      <c r="F5" s="178"/>
+      <c r="G5" s="188" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="174"/>
-      <c r="I5" s="174"/>
-      <c r="J5" s="174"/>
-      <c r="K5" s="174"/>
-      <c r="L5" s="174"/>
-      <c r="M5" s="174"/>
-      <c r="N5" s="174"/>
+      <c r="H5" s="188"/>
+      <c r="I5" s="188"/>
+      <c r="J5" s="188"/>
+      <c r="K5" s="188"/>
+      <c r="L5" s="188"/>
+      <c r="M5" s="188"/>
+      <c r="N5" s="188"/>
       <c r="Q5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R5" s="3"/>
-      <c r="S5" s="186" t="s">
+      <c r="S5" s="184" t="s">
         <v>86</v>
       </c>
-      <c r="T5" s="186"/>
-      <c r="U5" s="186"/>
-      <c r="V5" s="186"/>
-      <c r="W5" s="186"/>
-      <c r="X5" s="186"/>
-      <c r="Y5" s="186"/>
-      <c r="Z5" s="186"/>
+      <c r="T5" s="184"/>
+      <c r="U5" s="184"/>
+      <c r="V5" s="184"/>
+      <c r="W5" s="184"/>
+      <c r="X5" s="184"/>
+      <c r="Y5" s="184"/>
+      <c r="Z5" s="184"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
@@ -2251,20 +2251,20 @@
       <c r="B6" s="47"/>
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="181" t="s">
+      <c r="E6" s="178" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="181"/>
-      <c r="G6" s="174" t="s">
+      <c r="F6" s="178"/>
+      <c r="G6" s="188" t="s">
         <v>85</v>
       </c>
-      <c r="H6" s="174"/>
-      <c r="I6" s="174"/>
-      <c r="J6" s="174"/>
-      <c r="K6" s="174"/>
-      <c r="L6" s="174"/>
-      <c r="M6" s="174"/>
-      <c r="N6" s="174"/>
+      <c r="H6" s="188"/>
+      <c r="I6" s="188"/>
+      <c r="J6" s="188"/>
+      <c r="K6" s="188"/>
+      <c r="L6" s="188"/>
+      <c r="M6" s="188"/>
+      <c r="N6" s="188"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
@@ -2292,13 +2292,13 @@
       <c r="AM6" s="33"/>
     </row>
     <row r="7" spans="1:39" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="179" t="s">
+      <c r="B7" s="176" t="s">
         <v>81</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="179"/>
       <c r="G7" s="38"/>
       <c r="H7" s="131"/>
       <c r="I7" s="38"/>
@@ -2334,7 +2334,7 @@
       <c r="AM7" s="33"/>
     </row>
     <row r="8" spans="1:39" ht="40.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="179"/>
+      <c r="B8" s="176"/>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
       <c r="E8" s="7"/>
@@ -2374,7 +2374,7 @@
       <c r="AM8" s="35"/>
     </row>
     <row r="9" spans="1:39" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="179"/>
+      <c r="B9" s="176"/>
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
       <c r="E9" s="161"/>
@@ -2416,50 +2416,50 @@
       <c r="AM9" s="36"/>
     </row>
     <row r="10" spans="1:39" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="180"/>
+      <c r="B10" s="177"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="177" t="s">
+      <c r="E10" s="180" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="177"/>
-      <c r="G10" s="177"/>
+      <c r="F10" s="180"/>
+      <c r="G10" s="180"/>
       <c r="H10" s="133"/>
-      <c r="I10" s="177" t="s">
+      <c r="I10" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="177"/>
-      <c r="K10" s="177"/>
+      <c r="J10" s="180"/>
+      <c r="K10" s="180"/>
       <c r="L10" s="133"/>
-      <c r="M10" s="177" t="s">
+      <c r="M10" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="177"/>
-      <c r="O10" s="177"/>
+      <c r="N10" s="180"/>
+      <c r="O10" s="180"/>
       <c r="P10" s="82"/>
-      <c r="Q10" s="177" t="s">
+      <c r="Q10" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="R10" s="177"/>
-      <c r="S10" s="177"/>
+      <c r="R10" s="180"/>
+      <c r="S10" s="180"/>
       <c r="T10" s="133"/>
-      <c r="U10" s="177" t="s">
+      <c r="U10" s="180" t="s">
         <v>10</v>
       </c>
-      <c r="V10" s="177"/>
-      <c r="W10" s="177"/>
+      <c r="V10" s="180"/>
+      <c r="W10" s="180"/>
       <c r="X10" s="133"/>
-      <c r="Y10" s="177" t="s">
+      <c r="Y10" s="180" t="s">
         <v>43</v>
       </c>
-      <c r="Z10" s="177"/>
-      <c r="AA10" s="177"/>
+      <c r="Z10" s="180"/>
+      <c r="AA10" s="180"/>
       <c r="AB10" s="82"/>
-      <c r="AC10" s="177" t="s">
+      <c r="AC10" s="180" t="s">
         <v>44</v>
       </c>
-      <c r="AD10" s="177"/>
-      <c r="AE10" s="177"/>
+      <c r="AD10" s="180"/>
+      <c r="AE10" s="180"/>
       <c r="AF10" s="93"/>
       <c r="AG10" s="12"/>
       <c r="AH10" s="103"/>
@@ -2556,7 +2556,7 @@
       <c r="AJ11" s="36"/>
     </row>
     <row r="12" spans="1:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="176" t="s">
+      <c r="B12" s="190" t="s">
         <v>62</v>
       </c>
       <c r="C12" s="14" t="s">
@@ -2650,7 +2650,7 @@
       <c r="AJ12" s="36"/>
     </row>
     <row r="13" spans="1:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="172"/>
+      <c r="B13" s="168"/>
       <c r="C13" s="14" t="s">
         <v>25</v>
       </c>
@@ -2754,7 +2754,7 @@
       <c r="AJ13" s="36"/>
     </row>
     <row r="14" spans="1:39" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="172"/>
+      <c r="B14" s="168"/>
       <c r="C14" s="50" t="s">
         <v>25</v>
       </c>
@@ -2858,7 +2858,7 @@
       <c r="AJ14" s="36"/>
     </row>
     <row r="15" spans="1:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="167" t="s">
+      <c r="B15" s="170" t="s">
         <v>63</v>
       </c>
       <c r="C15" s="19" t="s">
@@ -2948,7 +2948,7 @@
       <c r="AJ15" s="36"/>
     </row>
     <row r="16" spans="1:39" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="168"/>
+      <c r="B16" s="169"/>
       <c r="C16" s="50" t="s">
         <v>25</v>
       </c>
@@ -3593,47 +3593,47 @@
       <c r="B25" s="64"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="173" t="s">
+      <c r="E25" s="174" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="173"/>
-      <c r="G25" s="173"/>
+      <c r="F25" s="174"/>
+      <c r="G25" s="174"/>
       <c r="H25" s="135"/>
-      <c r="I25" s="169" t="s">
+      <c r="I25" s="171" t="s">
         <v>38</v>
       </c>
-      <c r="J25" s="170"/>
-      <c r="K25" s="171"/>
+      <c r="J25" s="172"/>
+      <c r="K25" s="173"/>
       <c r="L25" s="134"/>
-      <c r="M25" s="169" t="s">
+      <c r="M25" s="171" t="s">
         <v>39</v>
       </c>
-      <c r="N25" s="170"/>
-      <c r="O25" s="171"/>
+      <c r="N25" s="172"/>
+      <c r="O25" s="173"/>
       <c r="P25" s="91"/>
-      <c r="Q25" s="169" t="s">
+      <c r="Q25" s="171" t="s">
         <v>41</v>
       </c>
-      <c r="R25" s="170"/>
-      <c r="S25" s="171"/>
+      <c r="R25" s="172"/>
+      <c r="S25" s="173"/>
       <c r="T25" s="134"/>
-      <c r="U25" s="169" t="s">
+      <c r="U25" s="171" t="s">
         <v>36</v>
       </c>
-      <c r="V25" s="170"/>
-      <c r="W25" s="171"/>
+      <c r="V25" s="172"/>
+      <c r="W25" s="173"/>
       <c r="X25" s="134"/>
-      <c r="Y25" s="169" t="s">
+      <c r="Y25" s="171" t="s">
         <v>40</v>
       </c>
-      <c r="Z25" s="170"/>
-      <c r="AA25" s="171"/>
+      <c r="Z25" s="172"/>
+      <c r="AA25" s="173"/>
       <c r="AB25" s="91"/>
-      <c r="AC25" s="169" t="s">
+      <c r="AC25" s="171" t="s">
         <v>37</v>
       </c>
-      <c r="AD25" s="170"/>
-      <c r="AE25" s="171"/>
+      <c r="AD25" s="172"/>
+      <c r="AE25" s="173"/>
       <c r="AF25" s="99"/>
       <c r="AG25" s="12"/>
       <c r="AH25" s="103"/>
@@ -3730,7 +3730,7 @@
       <c r="AJ26" s="36"/>
     </row>
     <row r="27" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="172" t="s">
+      <c r="B27" s="168" t="s">
         <v>66</v>
       </c>
       <c r="C27" s="14" t="s">
@@ -3803,7 +3803,7 @@
       <c r="AJ27" s="36"/>
     </row>
     <row r="28" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="172"/>
+      <c r="B28" s="168"/>
       <c r="C28" s="14" t="s">
         <v>25</v>
       </c>
@@ -3880,7 +3880,7 @@
       <c r="AJ28" s="36"/>
     </row>
     <row r="29" spans="2:39" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="168"/>
+      <c r="B29" s="169"/>
       <c r="C29" s="14" t="s">
         <v>25</v>
       </c>
@@ -3957,7 +3957,7 @@
       <c r="AJ29" s="36"/>
     </row>
     <row r="30" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="167" t="s">
+      <c r="B30" s="170" t="s">
         <v>67</v>
       </c>
       <c r="C30" s="66" t="s">
@@ -4026,7 +4026,7 @@
       <c r="AJ30" s="36"/>
     </row>
     <row r="31" spans="2:39" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="168"/>
+      <c r="B31" s="169"/>
       <c r="C31" s="59" t="s">
         <v>25</v>
       </c>
@@ -4097,7 +4097,7 @@
       <c r="AJ31" s="36"/>
     </row>
     <row r="32" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="167" t="s">
+      <c r="B32" s="170" t="s">
         <v>68</v>
       </c>
       <c r="C32" s="66" t="s">
@@ -4167,7 +4167,7 @@
       <c r="AJ32" s="36"/>
     </row>
     <row r="33" spans="2:36" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="168"/>
+      <c r="B33" s="169"/>
       <c r="C33" s="59" t="s">
         <v>25</v>
       </c>
@@ -4335,39 +4335,39 @@
       <c r="B37" s="64"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
-      <c r="E37" s="173" t="s">
+      <c r="E37" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="F37" s="173"/>
-      <c r="G37" s="173"/>
+      <c r="F37" s="174"/>
+      <c r="G37" s="174"/>
       <c r="H37" s="135"/>
-      <c r="I37" s="169" t="s">
+      <c r="I37" s="171" t="s">
         <v>60</v>
       </c>
-      <c r="J37" s="170"/>
-      <c r="K37" s="171"/>
+      <c r="J37" s="172"/>
+      <c r="K37" s="173"/>
       <c r="L37" s="134"/>
-      <c r="M37" s="169" t="s">
+      <c r="M37" s="171" t="s">
         <v>61</v>
       </c>
-      <c r="N37" s="170"/>
-      <c r="O37" s="171"/>
+      <c r="N37" s="172"/>
+      <c r="O37" s="173"/>
       <c r="P37" s="91"/>
-      <c r="Q37" s="169"/>
-      <c r="R37" s="170"/>
-      <c r="S37" s="171"/>
+      <c r="Q37" s="171"/>
+      <c r="R37" s="172"/>
+      <c r="S37" s="173"/>
       <c r="T37" s="134"/>
-      <c r="U37" s="169"/>
-      <c r="V37" s="170"/>
-      <c r="W37" s="171"/>
+      <c r="U37" s="171"/>
+      <c r="V37" s="172"/>
+      <c r="W37" s="173"/>
       <c r="X37" s="134"/>
-      <c r="Y37" s="169"/>
-      <c r="Z37" s="170"/>
-      <c r="AA37" s="171"/>
+      <c r="Y37" s="171"/>
+      <c r="Z37" s="172"/>
+      <c r="AA37" s="173"/>
       <c r="AB37" s="91"/>
-      <c r="AC37" s="169"/>
-      <c r="AD37" s="170"/>
-      <c r="AE37" s="171"/>
+      <c r="AC37" s="171"/>
+      <c r="AD37" s="172"/>
+      <c r="AE37" s="173"/>
       <c r="AF37" s="99"/>
       <c r="AG37" s="12"/>
       <c r="AH37" s="103"/>
@@ -4540,7 +4540,7 @@
       <c r="AJ39" s="36"/>
     </row>
     <row r="40" spans="2:36" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="167" t="s">
+      <c r="B40" s="170" t="s">
         <v>45</v>
       </c>
       <c r="C40" s="66" t="s">
@@ -4614,7 +4614,7 @@
       <c r="AJ40" s="36"/>
     </row>
     <row r="41" spans="2:36" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="168"/>
+      <c r="B41" s="169"/>
       <c r="C41" s="59" t="s">
         <v>25</v>
       </c>
@@ -4688,7 +4688,7 @@
       <c r="AJ41" s="36"/>
     </row>
     <row r="42" spans="2:36" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="167" t="s">
+      <c r="B42" s="170" t="s">
         <v>70</v>
       </c>
       <c r="C42" s="14" t="s">
@@ -4766,7 +4766,7 @@
       <c r="AJ42" s="36"/>
     </row>
     <row r="43" spans="2:36" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="172"/>
+      <c r="B43" s="168"/>
       <c r="C43" s="14" t="s">
         <v>25</v>
       </c>
@@ -4846,7 +4846,7 @@
       <c r="AJ43" s="36"/>
     </row>
     <row r="44" spans="2:36" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="168"/>
+      <c r="B44" s="169"/>
       <c r="C44" s="50" t="s">
         <v>25</v>
       </c>
@@ -4926,7 +4926,7 @@
       <c r="AJ44" s="36"/>
     </row>
     <row r="45" spans="2:36" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="172" t="s">
+      <c r="B45" s="168" t="s">
         <v>77</v>
       </c>
       <c r="C45" s="19" t="s">
@@ -5008,7 +5008,7 @@
       <c r="AJ45" s="36"/>
     </row>
     <row r="46" spans="2:36" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="168"/>
+      <c r="B46" s="169"/>
       <c r="C46" s="50" t="s">
         <v>25</v>
       </c>
@@ -5178,43 +5178,43 @@
       <c r="B50" s="64"/>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
-      <c r="E50" s="169" t="s">
+      <c r="E50" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="170"/>
-      <c r="G50" s="171"/>
+      <c r="F50" s="172"/>
+      <c r="G50" s="173"/>
       <c r="H50" s="135"/>
-      <c r="I50" s="169" t="s">
+      <c r="I50" s="171" t="s">
         <v>12</v>
       </c>
-      <c r="J50" s="170"/>
-      <c r="K50" s="171"/>
+      <c r="J50" s="172"/>
+      <c r="K50" s="173"/>
       <c r="L50" s="134"/>
-      <c r="M50" s="169" t="s">
+      <c r="M50" s="171" t="s">
         <v>13</v>
       </c>
-      <c r="N50" s="170"/>
-      <c r="O50" s="171"/>
+      <c r="N50" s="172"/>
+      <c r="O50" s="173"/>
       <c r="P50" s="91"/>
-      <c r="Q50" s="169" t="s">
+      <c r="Q50" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="R50" s="170"/>
-      <c r="S50" s="171"/>
+      <c r="R50" s="172"/>
+      <c r="S50" s="173"/>
       <c r="T50" s="134"/>
-      <c r="U50" s="169" t="s">
+      <c r="U50" s="171" t="s">
         <v>15</v>
       </c>
-      <c r="V50" s="170"/>
-      <c r="W50" s="171"/>
+      <c r="V50" s="172"/>
+      <c r="W50" s="173"/>
       <c r="X50" s="134"/>
-      <c r="Y50" s="169"/>
-      <c r="Z50" s="170"/>
-      <c r="AA50" s="171"/>
+      <c r="Y50" s="171"/>
+      <c r="Z50" s="172"/>
+      <c r="AA50" s="173"/>
       <c r="AB50" s="91"/>
-      <c r="AC50" s="169"/>
-      <c r="AD50" s="170"/>
-      <c r="AE50" s="171"/>
+      <c r="AC50" s="171"/>
+      <c r="AD50" s="172"/>
+      <c r="AE50" s="173"/>
       <c r="AF50" s="99"/>
       <c r="AG50" s="12"/>
       <c r="AH50" s="103"/>
@@ -5307,7 +5307,7 @@
       </c>
     </row>
     <row r="52" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="167" t="s">
+      <c r="B52" s="170" t="s">
         <v>42</v>
       </c>
       <c r="C52" s="19" t="s">
@@ -5397,7 +5397,7 @@
       <c r="AJ52" s="36"/>
     </row>
     <row r="53" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="172"/>
+      <c r="B53" s="168"/>
       <c r="C53" s="14" t="s">
         <v>25</v>
       </c>
@@ -5495,7 +5495,7 @@
       <c r="AJ53" s="36"/>
     </row>
     <row r="54" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="172"/>
+      <c r="B54" s="168"/>
       <c r="C54" s="14" t="s">
         <v>25</v>
       </c>
@@ -5593,7 +5593,7 @@
       <c r="AJ54" s="36"/>
     </row>
     <row r="55" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="172"/>
+      <c r="B55" s="168"/>
       <c r="C55" s="14" t="s">
         <v>25</v>
       </c>
@@ -5691,7 +5691,7 @@
       <c r="AJ55" s="36"/>
     </row>
     <row r="56" spans="2:39" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="168"/>
+      <c r="B56" s="169"/>
       <c r="C56" s="14" t="s">
         <v>25</v>
       </c>
@@ -5792,7 +5792,7 @@
       <c r="AM56" s="37"/>
     </row>
     <row r="57" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="167" t="s">
+      <c r="B57" s="170" t="s">
         <v>33</v>
       </c>
       <c r="C57" s="66" t="s">
@@ -5888,7 +5888,7 @@
       <c r="AJ57" s="36"/>
     </row>
     <row r="58" spans="2:39" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="168"/>
+      <c r="B58" s="169"/>
       <c r="C58" s="59" t="s">
         <v>25</v>
       </c>
@@ -5992,7 +5992,7 @@
       <c r="AJ58" s="36"/>
     </row>
     <row r="59" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="172" t="s">
+      <c r="B59" s="168" t="s">
         <v>59</v>
       </c>
       <c r="C59" s="57" t="s">
@@ -6080,7 +6080,7 @@
       </c>
     </row>
     <row r="60" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="172"/>
+      <c r="B60" s="168"/>
       <c r="C60" s="14" t="s">
         <v>80</v>
       </c>
@@ -6176,7 +6176,7 @@
       </c>
     </row>
     <row r="61" spans="2:39" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="168"/>
+      <c r="B61" s="169"/>
       <c r="C61" s="59" t="s">
         <v>80</v>
       </c>
@@ -6272,7 +6272,7 @@
       </c>
     </row>
     <row r="62" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="167" t="s">
+      <c r="B62" s="170" t="s">
         <v>58</v>
       </c>
       <c r="C62" s="66" t="s">
@@ -6360,7 +6360,7 @@
       </c>
     </row>
     <row r="63" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="172"/>
+      <c r="B63" s="168"/>
       <c r="C63" s="14" t="s">
         <v>80</v>
       </c>
@@ -6456,7 +6456,7 @@
       </c>
     </row>
     <row r="64" spans="2:39" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="168"/>
+      <c r="B64" s="169"/>
       <c r="C64" s="59" t="s">
         <v>80</v>
       </c>
@@ -6552,7 +6552,7 @@
       </c>
     </row>
     <row r="65" spans="2:36" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="172" t="s">
+      <c r="B65" s="168" t="s">
         <v>48</v>
       </c>
       <c r="C65" s="57" t="s">
@@ -6640,7 +6640,7 @@
       </c>
     </row>
     <row r="66" spans="2:36" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="172"/>
+      <c r="B66" s="168"/>
       <c r="C66" s="30" t="s">
         <v>80</v>
       </c>
@@ -6736,7 +6736,7 @@
       </c>
     </row>
     <row r="67" spans="2:36" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="168"/>
+      <c r="B67" s="169"/>
       <c r="C67" s="50" t="s">
         <v>80</v>
       </c>
@@ -6832,7 +6832,7 @@
       </c>
     </row>
     <row r="68" spans="2:36" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="167" t="s">
+      <c r="B68" s="170" t="s">
         <v>57</v>
       </c>
       <c r="C68" s="19" t="s">
@@ -6920,7 +6920,7 @@
       </c>
     </row>
     <row r="69" spans="2:36" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="172"/>
+      <c r="B69" s="168"/>
       <c r="C69" s="50" t="s">
         <v>25</v>
       </c>
@@ -7016,7 +7016,7 @@
       </c>
     </row>
     <row r="70" spans="2:36" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="167" t="s">
+      <c r="B70" s="170" t="s">
         <v>47</v>
       </c>
       <c r="C70" s="66" t="s">
@@ -7104,7 +7104,7 @@
       </c>
     </row>
     <row r="71" spans="2:36" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="168"/>
+      <c r="B71" s="169"/>
       <c r="C71" s="59" t="s">
         <v>25</v>
       </c>
@@ -7259,12 +7259,14 @@
     </row>
     <row r="74" spans="2:36" ht="42.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="75" spans="2:36" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="190" t="s">
+      <c r="B75" s="167" t="s">
         <v>90</v>
       </c>
       <c r="C75" s="14"/>
       <c r="D75" s="15"/>
-      <c r="E75" s="76"/>
+      <c r="E75" s="76">
+        <v>1</v>
+      </c>
       <c r="F75" s="42">
         <v>10.49</v>
       </c>
@@ -7273,11 +7275,9 @@
       </c>
       <c r="H75" s="115">
         <f t="shared" ref="H75" si="72">E75*F75</f>
-        <v>0</v>
-      </c>
-      <c r="I75" s="76">
-        <v>1</v>
-      </c>
+        <v>10.49</v>
+      </c>
+      <c r="I75" s="76"/>
       <c r="J75" s="42">
         <v>6.99</v>
       </c>
@@ -7286,7 +7286,7 @@
       </c>
       <c r="L75" s="115">
         <f t="shared" ref="L75" si="73">I75*J75</f>
-        <v>6.99</v>
+        <v>0</v>
       </c>
       <c r="M75" s="76"/>
       <c r="N75" s="42">
@@ -7333,43 +7333,40 @@
       </c>
       <c r="AH75" s="18">
         <f t="shared" ref="AH75" si="80">SUM(H75,L75,P75,T75,X75,AB75,AF75)</f>
-        <v>6.99</v>
+        <v>10.49</v>
       </c>
     </row>
     <row r="76" spans="2:36" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AH76" s="18">
         <f>AH73+AH75</f>
-        <v>2986.79</v>
+        <v>2990.29</v>
       </c>
     </row>
     <row r="77" spans="2:36" ht="42.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="61">
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="Y50:AA50"/>
-    <mergeCell ref="AC50:AE50"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="Q50:S50"/>
-    <mergeCell ref="U50:W50"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="AC37:AE37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="U37:W37"/>
-    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="G6:N6"/>
+    <mergeCell ref="G3:N3"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="M10:O10"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="E6:F6"/>
@@ -7386,27 +7383,30 @@
     <mergeCell ref="G1:N1"/>
     <mergeCell ref="Q10:S10"/>
     <mergeCell ref="S3:Z3"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="G6:N6"/>
-    <mergeCell ref="G3:N3"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="Q25:S25"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="AC37:AE37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="U37:W37"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="Y50:AA50"/>
+    <mergeCell ref="AC50:AE50"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="Q50:S50"/>
+    <mergeCell ref="U50:W50"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="B57:B58"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
